--- a/bin/Debug/电机数据表.xlsx
+++ b/bin/Debug/电机数据表.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF85439D-186D-4BBE-9DF8-2C738F2093FF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="11940" windowHeight="6825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,6 +32,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -40,6 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -59,6 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>，变频器</t>
@@ -77,6 +81,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>，普通启动器</t>
@@ -111,6 +116,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -120,6 +126,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -139,6 +146,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>，变频器</t>
@@ -157,6 +165,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>，普通启动器</t>
@@ -178,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="136">
   <si>
     <t>信息传递站台号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -683,37 +692,11 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>nd</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -824,6 +807,27 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>2100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nd</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -842,16 +846,19 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -865,18 +872,21 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -884,6 +894,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -938,7 +949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,11 +1004,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1457,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1770,20 +1784,20 @@
       <c r="Y4" s="9"/>
     </row>
     <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
-        <v>101</v>
+      <c r="A5" s="19">
+        <v>2101</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>125</v>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>94</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
@@ -1850,20 +1864,20 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
-        <v>102</v>
+      <c r="A6" s="19">
+        <v>2102</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>126</v>
+        <v>49</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>94</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F6" s="11">
         <v>1</v>
@@ -1930,20 +1944,20 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
-        <v>103</v>
+      <c r="A7" s="19">
+        <v>2103</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>127</v>
+        <v>49</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>94</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F7" s="11">
         <v>1</v>
@@ -2010,20 +2024,20 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
-        <v>104</v>
+      <c r="A8" s="19">
+        <v>2104</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>128</v>
+        <v>49</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>94</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F8" s="11">
         <v>1</v>
@@ -2090,20 +2104,20 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
-        <v>105</v>
+      <c r="A9" s="19">
+        <v>2105</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>129</v>
+        <v>49</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>94</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F9" s="11">
         <v>1</v>
@@ -2170,20 +2184,20 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
-        <v>106</v>
+      <c r="A10" s="19">
+        <v>2106</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>130</v>
+        <v>49</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>94</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F10" s="11">
         <v>1</v>
@@ -2250,20 +2264,20 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
-        <v>107</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>131</v>
+      <c r="A11" s="19">
+        <v>2107</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>94</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F11" s="11">
         <v>1</v>
@@ -2280,8 +2294,8 @@
       <c r="J11" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="K11" s="19" t="s">
-        <v>136</v>
+      <c r="K11" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>90</v>
@@ -2325,25 +2339,25 @@
       <c r="Y11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Z11" s="19" t="s">
+      <c r="Z11" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
-        <v>108</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>126</v>
+      <c r="A12" s="19">
+        <v>2108</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>94</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F12" s="11">
         <v>1</v>
@@ -2360,8 +2374,8 @@
       <c r="J12" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="K12" s="19" t="s">
-        <v>137</v>
+      <c r="K12" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>90</v>
@@ -2405,25 +2419,25 @@
       <c r="Y12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Z12" s="19" t="s">
+      <c r="Z12" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13">
-        <v>109</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>127</v>
+      <c r="A13" s="19">
+        <v>2109</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>94</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F13" s="11">
         <v>1</v>
@@ -2440,8 +2454,8 @@
       <c r="J13" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="K13" s="19" t="s">
-        <v>138</v>
+      <c r="K13" s="18" t="s">
+        <v>130</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>90</v>
@@ -2485,25 +2499,25 @@
       <c r="Y13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Z13" s="19" t="s">
-        <v>133</v>
+      <c r="Z13" s="18" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13">
-        <v>110</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>128</v>
+      <c r="A14" s="19">
+        <v>2110</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>94</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F14" s="11">
         <v>1</v>
@@ -2520,8 +2534,8 @@
       <c r="J14" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="K14" s="19" t="s">
-        <v>139</v>
+      <c r="K14" s="18" t="s">
+        <v>131</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>90</v>
@@ -2565,43 +2579,43 @@
       <c r="Y14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Z14" s="19" t="s">
+      <c r="Z14" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
+        <v>2111</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
-        <v>111</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="18" t="s">
         <v>132</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>140</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>90</v>
@@ -2645,25 +2659,25 @@
       <c r="Y15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Z15" s="19" t="s">
+      <c r="Z15" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13">
-        <v>307</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>65</v>
+      <c r="A16" s="19">
+        <v>2112</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>94</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F16" s="11">
         <v>1</v>
@@ -2680,8 +2694,8 @@
       <c r="J16" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="19" t="s">
-        <v>141</v>
+      <c r="K16" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>90</v>
@@ -2725,16 +2739,16 @@
       <c r="Y16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Z16" s="19" t="s">
-        <v>135</v>
+      <c r="Z16" s="18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
-        <v>308</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>90</v>
+      <c r="A17" s="19">
+        <v>2113</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>5</v>
@@ -2743,7 +2757,7 @@
         <v>94</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F17" s="11">
         <v>1</v>
@@ -2810,8 +2824,8 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13">
-        <v>309</v>
+      <c r="A18" s="19">
+        <v>2114</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>96</v>
@@ -2823,7 +2837,7 @@
         <v>94</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
@@ -2890,8 +2904,8 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13">
-        <v>310</v>
+      <c r="A19" s="19">
+        <v>2115</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>96</v>
@@ -2903,7 +2917,7 @@
         <v>94</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F19" s="11">
         <v>1</v>
@@ -2970,8 +2984,8 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13">
-        <v>311</v>
+      <c r="A20" s="19">
+        <v>2134</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>96</v>
@@ -2983,7 +2997,7 @@
         <v>94</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F20" s="11">
         <v>1</v>
@@ -3050,8 +3064,8 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13">
-        <v>312</v>
+      <c r="A21" s="19">
+        <v>2116</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>96</v>
@@ -3063,7 +3077,7 @@
         <v>94</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F21" s="11">
         <v>1</v>
@@ -3130,8 +3144,8 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13">
-        <v>201</v>
+      <c r="A22" s="19">
+        <v>2135</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>96</v>
@@ -3143,7 +3157,7 @@
         <v>94</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F22" s="11">
         <v>1</v>
@@ -3210,8 +3224,8 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13">
-        <v>202</v>
+      <c r="A23" s="19">
+        <v>2117</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>96</v>
@@ -3223,7 +3237,7 @@
         <v>94</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F23" s="11">
         <v>1</v>
@@ -3290,8 +3304,8 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13">
-        <v>204</v>
+      <c r="A24" s="19">
+        <v>2118</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>96</v>
@@ -3303,7 +3317,7 @@
         <v>94</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F24" s="11">
         <v>1</v>
@@ -3370,8 +3384,8 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="13">
-        <v>205</v>
+      <c r="A25" s="19">
+        <v>2119</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>96</v>
@@ -3383,7 +3397,7 @@
         <v>94</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F25" s="11">
         <v>1</v>
@@ -3450,8 +3464,8 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="13">
-        <v>206</v>
+      <c r="A26" s="19">
+        <v>2120</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>96</v>
@@ -3463,7 +3477,7 @@
         <v>94</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F26" s="11">
         <v>1</v>
@@ -3530,8 +3544,8 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13">
-        <v>207</v>
+      <c r="A27" s="19">
+        <v>2121</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>96</v>
@@ -3543,7 +3557,7 @@
         <v>94</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F27" s="11">
         <v>1</v>
@@ -3610,8 +3624,8 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="13">
-        <v>208</v>
+      <c r="A28" s="19">
+        <v>2122</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>96</v>
@@ -3623,7 +3637,7 @@
         <v>94</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F28" s="11">
         <v>1</v>
@@ -3690,8 +3704,8 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="13">
-        <v>209</v>
+      <c r="A29" s="19">
+        <v>2123</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>96</v>
@@ -3703,7 +3717,7 @@
         <v>94</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F29" s="11">
         <v>1</v>
@@ -3770,8 +3784,8 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13">
-        <v>210</v>
+      <c r="A30" s="19">
+        <v>2124</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>96</v>
@@ -3783,7 +3797,7 @@
         <v>94</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F30" s="11">
         <v>1</v>
@@ -3850,8 +3864,8 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="13">
-        <v>211</v>
+      <c r="A31" s="19">
+        <v>2125</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>96</v>
@@ -3863,7 +3877,7 @@
         <v>94</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F31" s="11">
         <v>1</v>
@@ -3930,8 +3944,8 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="13">
-        <v>301</v>
+      <c r="A32" s="19">
+        <v>2126</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>96</v>
@@ -3943,7 +3957,7 @@
         <v>94</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F32" s="11">
         <v>1</v>
@@ -4010,8 +4024,8 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13">
-        <v>302</v>
+      <c r="A33" s="19">
+        <v>2127</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>96</v>
@@ -4023,7 +4037,7 @@
         <v>94</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F33" s="11">
         <v>1</v>
@@ -4090,8 +4104,8 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="13">
-        <v>303</v>
+      <c r="A34" s="19">
+        <v>2128</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>96</v>
@@ -4103,7 +4117,7 @@
         <v>94</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F34" s="11">
         <v>1</v>
@@ -4170,8 +4184,8 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="13">
-        <v>304</v>
+      <c r="A35" s="19">
+        <v>2129</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>96</v>
@@ -4183,7 +4197,7 @@
         <v>94</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F35" s="11">
         <v>1</v>
@@ -4250,8 +4264,8 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="13">
-        <v>305</v>
+      <c r="A36" s="19">
+        <v>2130</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>96</v>
@@ -4263,7 +4277,7 @@
         <v>94</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F36" s="11">
         <v>1</v>
@@ -4330,8 +4344,8 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="13">
-        <v>306</v>
+      <c r="A37" s="19">
+        <v>2131</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>96</v>
@@ -4343,7 +4357,7 @@
         <v>94</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F37" s="11">
         <v>1</v>
@@ -4410,8 +4424,8 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="13">
-        <v>313</v>
+      <c r="A38" s="19">
+        <v>2132</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>96</v>
@@ -4423,7 +4437,7 @@
         <v>94</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F38" s="11">
         <v>1</v>
@@ -4490,8 +4504,8 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="13">
-        <v>314</v>
+      <c r="A39" s="19">
+        <v>2133</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>96</v>
@@ -4503,7 +4517,7 @@
         <v>94</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="F39" s="11">
         <v>1</v>
@@ -4570,8 +4584,8 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="13">
-        <v>315</v>
+      <c r="A40" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>96</v>
